--- a/0咪咕音乐/咪咕音乐sdkv360/咪咕音乐USS_music_sdk_v3.6.0测试用例_.xlsx
+++ b/0咪咕音乐/咪咕音乐sdkv360/咪咕音乐USS_music_sdk_v3.6.0测试用例_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="100">
   <si>
     <t>*功能模块</t>
   </si>
@@ -129,6 +129,9 @@
     <t>Jadeite_USS_music_sdk-V3.6.0</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>知识付费专辑：专辑页额外展示区分标识</t>
   </si>
   <si>
@@ -158,50 +161,6 @@
 2、专辑页不显示【知识】标识的付费专辑</t>
   </si>
   <si>
-    <t>点击付费专辑-最佳展示位</t>
-  </si>
-  <si>
-    <t>1、启动SDK安装包
-2、搜索知识付费专辑
-3、查看最佳展示位
-4、点击付费专辑</t>
-  </si>
-  <si>
-    <t>1、音乐APP启动成功
-2、点击付费专辑后跳转至H5知识付费专辑订购页</t>
-  </si>
-  <si>
-    <t>点击付费专辑-专辑页</t>
-  </si>
-  <si>
-    <t>1、启动SDK安装包
-2、搜索知识付费专辑
-3、查看专辑页
-4、点击付费专辑</t>
-  </si>
-  <si>
-    <t>点击普通专辑-最佳显示位</t>
-  </si>
-  <si>
-    <t>1、启动SDK安装包
-2、搜索知识付费专辑
-3、查看最佳展示位
-4、点击普通专辑</t>
-  </si>
-  <si>
-    <t>1、音乐APP启动成功
-2、点击普通专辑后跳转至专辑详情页</t>
-  </si>
-  <si>
-    <t>点击普通专辑-专辑页</t>
-  </si>
-  <si>
-    <t>1、启动SDK安装包
-2、搜索知识付费专辑
-3、查看专辑页
-4、点击普通专辑</t>
-  </si>
-  <si>
     <t>专辑内音频搜索出专辑，查看专辑提示语</t>
   </si>
   <si>
@@ -244,13 +203,6 @@
 2、查看返回报文</t>
   </si>
   <si>
-    <t>最佳展示位：通过专辑内音频搜索</t>
-  </si>
-  <si>
-    <t>1、无维度接口最佳展示位字段置1搜索专辑内音频
-2、查看返回报文</t>
-  </si>
-  <si>
     <t>专辑页：通过专辑名搜索</t>
   </si>
   <si>
@@ -304,16 +256,6 @@
   <si>
     <t>1、接口请求成功
 2、返回报文中有区别其他数专的字段</t>
-  </si>
-  <si>
-    <t>知识付费类专辑中的音频要过滤，不支持搜索露出</t>
-  </si>
-  <si>
-    <t>1、接口搜索知识付费专辑中的音频
-2、查看返回报文</t>
-  </si>
-  <si>
-    <t>1、返回报文中无知识付费音频</t>
   </si>
   <si>
     <t>versionNo大于3.6.0搜索付费专辑</t>
@@ -400,22 +342,6 @@
   <si>
     <t>1、启动SDK安装包
 2、24bit页付费歌曲
-3、查看单曲页</t>
-  </si>
-  <si>
-    <t>搜索并添加VIP歌曲至歌单</t>
-  </si>
-  <si>
-    <t>1、启动SDK安装包
-2、添加VIP歌曲至歌单
-3、查看单曲页</t>
-  </si>
-  <si>
-    <t>搜索并添加付费歌曲至歌单</t>
-  </si>
-  <si>
-    <t>1、启动SDK安装包
-2、添加付费歌曲至歌单
 3、查看单曲页</t>
   </si>
   <si>
@@ -455,8 +381,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -524,12 +450,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -544,19 +499,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -575,22 +528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -598,23 +537,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -630,10 +553,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,7 +570,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,18 +599,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -699,187 +625,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,6 +921,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1006,21 +943,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,13 +980,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,152 +1011,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,15 +1226,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1321,21 +1238,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,16 +1253,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1688,12 +1584,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1763,16 +1659,16 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="28" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1860,7 +1756,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -1869,21 +1765,25 @@
       <c r="K5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N5" s="15"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16" t="s">
@@ -1893,96 +1793,108 @@
         <v>24</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="36" t="s">
-        <v>29</v>
+      <c r="I6" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="38"/>
+      <c r="L6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="31"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="90" spans="1:19">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N7" s="17"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="36" t="s">
-        <v>29</v>
+      <c r="I8" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N8" s="17"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="120" spans="1:19">
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
@@ -1992,213 +1904,237 @@
         <v>24</v>
       </c>
       <c r="H9" s="16"/>
-      <c r="I9" s="36" t="s">
-        <v>37</v>
+      <c r="I9" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="105" spans="1:19">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="36" t="s">
+      <c r="L9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15" spans="1:19">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="120" spans="1:19">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="90" spans="1:19">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="36" t="s">
         <v>42</v>
       </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="J11" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="105" spans="1:19">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14" t="s">
-        <v>44</v>
+      <c r="L11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="90" spans="1:19">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="75" spans="1:19">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14" t="s">
-        <v>46</v>
+      <c r="L12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="90" spans="1:19">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="36" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="15" spans="1:19">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
+      <c r="L13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="60" spans="1:19">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="90" spans="1:19">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N15" s="21"/>
       <c r="O15" s="20"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="90" spans="1:19">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -2207,31 +2143,35 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="15" t="s">
         <v>55</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N16" s="21"/>
       <c r="O16" s="20"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="90" spans="1:19">
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
@@ -2240,31 +2180,35 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="15" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N17" s="21"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="90" spans="1:19">
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
@@ -2276,415 +2220,435 @@
         <v>23</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N18" s="21"/>
       <c r="O18" s="20"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N19" s="21"/>
       <c r="O19" s="20"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>62</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H20" s="12"/>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="L20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N20" s="21"/>
       <c r="O20" s="20"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="75" spans="1:19">
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H21" s="12"/>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>62</v>
+      <c r="J21" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="L21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N21" s="21"/>
       <c r="O21" s="20"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="75" spans="1:19">
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N22" s="21"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H23" s="12"/>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="L23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N23" s="21"/>
       <c r="O23" s="20"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="60" spans="1:19">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15" spans="1:19">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A25" s="20"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="25"/>
+        <v>72</v>
+      </c>
+      <c r="E25" s="11"/>
       <c r="F25" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H25" s="12"/>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="11" t="s">
         <v>75</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="L25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="N25" s="21"/>
       <c r="O25" s="20"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="75" spans="1:19">
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A26" s="20"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="L26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="N26" s="21"/>
       <c r="O26" s="20"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="60" spans="1:19">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="48" spans="1:19">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="60" spans="1:19">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="15" spans="1:19">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="60" spans="1:19">
       <c r="A29" s="20"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H29" s="12"/>
-      <c r="I29" s="11" t="s">
-        <v>80</v>
+      <c r="I29" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="L29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="N29" s="21"/>
       <c r="O29" s="20"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="15" spans="1:19">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="6" t="s">
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="75" spans="1:19">
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="60" spans="1:19">
-      <c r="A31" s="20"/>
+      <c r="K30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="75" spans="1:19">
+      <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22" t="s">
@@ -2695,524 +2659,312 @@
         <v>23</v>
       </c>
       <c r="G31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="J31" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="L31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="N31" s="21"/>
       <c r="O31" s="20"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="60" spans="1:19">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="33"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="75" spans="1:19">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="48" spans="1:19">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="15" spans="1:19">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="60" spans="1:19">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="L32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="60" spans="1:19">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" s="15" t="s">
+      <c r="H33" s="12"/>
+      <c r="I33" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="75" spans="1:19">
-      <c r="A36" s="20"/>
+      <c r="L33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="21"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="75" spans="1:19">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="15" spans="1:19">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="60" spans="1:19">
+      <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H36" s="12"/>
-      <c r="I36" s="36" t="s">
-        <v>98</v>
+      <c r="I36" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
+      <c r="L36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H37" s="12"/>
-      <c r="I37" s="36" t="s">
-        <v>101</v>
+      <c r="I37" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
+      <c r="L37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H38" s="12"/>
-      <c r="I38" s="36" t="s">
-        <v>103</v>
+      <c r="I38" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
+      <c r="L38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H39" s="12"/>
-      <c r="I39" s="36" t="s">
-        <v>105</v>
+      <c r="I39" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="75" spans="1:19">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="60" spans="1:19">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="75" spans="1:19">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="15" spans="1:19">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="60" spans="1:19">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="12"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="75" spans="1:19">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="75" spans="1:19">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="75" spans="1:19">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
+      <c r="L39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
